--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220407.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="277">
   <si>
     <t>사이트</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>MAJOR9</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>around us</t>
@@ -2890,6 +2893,12 @@
       <c r="F65" t="s">
         <v>213</v>
       </c>
+      <c r="G65" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
@@ -2911,7 +2920,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H66" t="s">
         <v>246</v>
@@ -3041,7 +3050,7 @@
         <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H71" t="s">
         <v>246</v>
@@ -3249,7 +3258,7 @@
         <v>222</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H79" t="s">
         <v>246</v>
@@ -3275,7 +3284,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H80" t="s">
         <v>246</v>
@@ -3352,6 +3361,12 @@
       <c r="F83" t="s">
         <v>225</v>
       </c>
+      <c r="G83" t="s">
+        <v>265</v>
+      </c>
+      <c r="H83" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
@@ -3425,7 +3440,7 @@
         <v>228</v>
       </c>
       <c r="G86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H86" t="s">
         <v>246</v>
@@ -3477,7 +3492,7 @@
         <v>230</v>
       </c>
       <c r="G88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H88" t="s">
         <v>246</v>
@@ -3503,7 +3518,7 @@
         <v>231</v>
       </c>
       <c r="G89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H89" t="s">
         <v>246</v>
@@ -3529,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H90" t="s">
         <v>246</v>
@@ -3607,7 +3622,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H93" t="s">
         <v>246</v>
@@ -3659,7 +3674,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H95" t="s">
         <v>246</v>
@@ -3685,7 +3700,7 @@
         <v>234</v>
       </c>
       <c r="G96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H96" t="s">
         <v>246</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220407.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-07</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220407.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -784,9 +784,6 @@
   </si>
   <si>
     <t>YUE HUA</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -2062,7 +2059,7 @@
         <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
         <v>246</v>
@@ -2166,7 +2163,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H37" t="s">
         <v>246</v>
@@ -2270,7 +2267,7 @@
         <v>201</v>
       </c>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H41" t="s">
         <v>246</v>
@@ -2296,7 +2293,7 @@
         <v>202</v>
       </c>
       <c r="G42" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H42" t="s">
         <v>246</v>
@@ -2400,7 +2397,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H46" t="s">
         <v>246</v>
@@ -2426,7 +2423,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H47" t="s">
         <v>246</v>
@@ -2504,7 +2501,7 @@
         <v>205</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
         <v>246</v>
@@ -2530,7 +2527,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H51" t="s">
         <v>246</v>
@@ -2634,7 +2631,7 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H55" t="s">
         <v>246</v>
@@ -2686,10 +2683,10 @@
         <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2790,10 +2787,10 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2816,7 +2813,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H62" t="s">
         <v>246</v>
@@ -2894,7 +2891,7 @@
         <v>213</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" t="s">
         <v>246</v>
@@ -2920,7 +2917,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H66" t="s">
         <v>246</v>
@@ -2972,7 +2969,7 @@
         <v>214</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H68" t="s">
         <v>246</v>
@@ -3050,7 +3047,7 @@
         <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H71" t="s">
         <v>246</v>
@@ -3128,7 +3125,7 @@
         <v>193</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H74" t="s">
         <v>246</v>
@@ -3206,7 +3203,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H77" t="s">
         <v>246</v>
@@ -3258,7 +3255,7 @@
         <v>222</v>
       </c>
       <c r="G79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H79" t="s">
         <v>246</v>
@@ -3284,7 +3281,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H80" t="s">
         <v>246</v>
@@ -3310,10 +3307,10 @@
         <v>223</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3362,7 +3359,7 @@
         <v>225</v>
       </c>
       <c r="G83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H83" t="s">
         <v>246</v>
@@ -3440,7 +3437,7 @@
         <v>228</v>
       </c>
       <c r="G86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H86" t="s">
         <v>246</v>
@@ -3492,7 +3489,7 @@
         <v>230</v>
       </c>
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H88" t="s">
         <v>246</v>
@@ -3518,7 +3515,7 @@
         <v>231</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H89" t="s">
         <v>246</v>
@@ -3544,7 +3541,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H90" t="s">
         <v>246</v>
@@ -3622,7 +3619,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
         <v>246</v>
@@ -3674,7 +3671,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H95" t="s">
         <v>246</v>
@@ -3700,7 +3697,7 @@
         <v>234</v>
       </c>
       <c r="G96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H96" t="s">
         <v>246</v>
@@ -3726,7 +3723,7 @@
         <v>235</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H97" t="s">
         <v>246</v>
